--- a/competency-questions.xlsx
+++ b/competency-questions.xlsx
@@ -11,14 +11,14 @@
     <sheet name="References" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final competency questions'!$A$4:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final competency questions'!$A$4:$G$82</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="263">
   <si>
     <t>State of Practice (2007)</t>
   </si>
@@ -2914,31 +2914,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A large number of studies covering all important fields of SE and using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>different
-empirical methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are conducted and reported. Most research that leads to new or modified technology is accompanied with empirical evaluation. At least for journal papers, there should be good reasons for not including a proper evaluation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A large number of studies </t>
     </r>
     <r>
@@ -3557,9 +3532,6 @@
   </si>
   <si>
     <t>How often are which empirical methods used over time?</t>
-  </si>
-  <si>
-    <t>How often are which research methods used for empirical studies?</t>
   </si>
   <si>
     <t>The use of statistical methods is mature. Populations are well
@@ -3616,6 +3588,9 @@
   </si>
   <si>
     <t>Related work with similar question</t>
+  </si>
+  <si>
+    <t>How often are which research methods used?</t>
   </si>
 </sst>
 </file>
@@ -4403,6 +4378,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4446,45 +4460,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4794,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,63 +4785,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="82"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
@@ -4874,20 +4849,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -4902,20 +4877,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>147</v>
+        <v>258</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4923,20 +4898,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4947,17 +4922,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4968,17 +4943,17 @@
         <v>144</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4989,12 +4964,12 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
@@ -5010,12 +4985,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
@@ -5031,13 +5006,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>160</v>
+      <c r="E13" s="81" t="s">
+        <v>159</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>32</v>
@@ -5054,14 +5029,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>13</v>
@@ -5072,17 +5047,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>20</v>
@@ -5096,17 +5071,17 @@
         <v>14</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5117,12 +5092,12 @@
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="12" t="s">
         <v>21</v>
       </c>
@@ -5138,12 +5113,12 @@
         <v>16</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="89"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="12" t="s">
         <v>23</v>
       </c>
@@ -5159,12 +5134,12 @@
         <v>145</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="89"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
@@ -5180,12 +5155,12 @@
         <v>18</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="12" t="s">
         <v>25</v>
       </c>
@@ -5201,12 +5176,12 @@
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="12" t="s">
         <v>34</v>
       </c>
@@ -5222,12 +5197,12 @@
         <v>31</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="89"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="12" t="s">
         <v>29</v>
       </c>
@@ -5240,20 +5215,20 @@
         <v>18</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="89"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5264,14 +5239,14 @@
         <v>36</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="89"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>35</v>
@@ -5285,14 +5260,14 @@
         <v>37</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="89"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>35</v>
@@ -5303,17 +5278,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="89"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>43</v>
@@ -5327,14 +5302,14 @@
         <v>38</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>44</v>
@@ -5348,14 +5323,14 @@
         <v>39</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="89"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>45</v>
@@ -5369,14 +5344,14 @@
         <v>40</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="89"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>45</v>
@@ -5390,12 +5365,12 @@
         <v>48</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="90"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="29" t="s">
         <v>46</v>
       </c>
@@ -5408,16 +5383,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="93" t="s">
-        <v>174</v>
+      <c r="E31" s="78" t="s">
+        <v>173</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>50</v>
@@ -5431,15 +5406,15 @@
         <v>27</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="12" t="s">
         <v>50</v>
       </c>
@@ -5452,15 +5427,15 @@
         <v>28</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="94"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="12" t="s">
         <v>50</v>
       </c>
@@ -5473,15 +5448,15 @@
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="94"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="12" t="s">
         <v>50</v>
       </c>
@@ -5494,15 +5469,15 @@
         <v>30</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="94"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="12" t="s">
         <v>50</v>
       </c>
@@ -5518,12 +5493,12 @@
         <v>57</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="12" t="s">
         <v>56</v>
       </c>
@@ -5536,15 +5511,15 @@
         <v>32</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="12" t="s">
         <v>60</v>
       </c>
@@ -5557,15 +5532,15 @@
         <v>33</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="94"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="12" t="s">
         <v>62</v>
       </c>
@@ -5581,12 +5556,12 @@
         <v>63</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="12" t="s">
         <v>70</v>
       </c>
@@ -5602,12 +5577,12 @@
         <v>66</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="94"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="12" t="s">
         <v>70</v>
       </c>
@@ -5623,12 +5598,12 @@
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="94"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="12" t="s">
         <v>70</v>
       </c>
@@ -5641,15 +5616,15 @@
         <v>37</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="12" t="s">
         <v>70</v>
       </c>
@@ -5665,12 +5640,12 @@
         <v>73</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="94"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="25" t="s">
         <v>71</v>
       </c>
@@ -5686,12 +5661,12 @@
         <v>75</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="94"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
         <v>76</v>
       </c>
@@ -5704,15 +5679,15 @@
         <v>40</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="94"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="25" t="s">
         <v>81</v>
       </c>
@@ -5731,7 +5706,7 @@
       <c r="D46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="94"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="25" t="s">
         <v>82</v>
       </c>
@@ -5747,12 +5722,12 @@
         <v>80</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="94"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="25" t="s">
         <v>83</v>
       </c>
@@ -5765,15 +5740,15 @@
         <v>43</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="95"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="34" t="s">
         <v>83</v>
       </c>
@@ -5786,16 +5761,16 @@
         <v>44</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="88" t="s">
-        <v>176</v>
+      <c r="E49" s="81" t="s">
+        <v>175</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>85</v>
@@ -5809,15 +5784,15 @@
         <v>45</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="89"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="12" t="s">
         <v>85</v>
       </c>
@@ -5833,12 +5808,12 @@
         <v>89</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="89"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="12" t="s">
         <v>87</v>
       </c>
@@ -5851,15 +5826,15 @@
         <v>47</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="89"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="12" t="s">
         <v>90</v>
       </c>
@@ -5872,15 +5847,15 @@
         <v>48</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="89"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="12" t="s">
         <v>93</v>
       </c>
@@ -5896,12 +5871,12 @@
         <v>94</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="89"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="12" t="s">
         <v>96</v>
       </c>
@@ -5917,12 +5892,12 @@
         <v>97</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="89"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="12" t="s">
         <v>98</v>
       </c>
@@ -5938,12 +5913,12 @@
         <v>100</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="89"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="12" t="s">
         <v>101</v>
       </c>
@@ -5956,15 +5931,15 @@
         <v>52</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="89"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="12" t="s">
         <v>103</v>
       </c>
@@ -5977,15 +5952,15 @@
         <v>53</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="89"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="12" t="s">
         <v>103</v>
       </c>
@@ -5998,15 +5973,15 @@
         <v>54</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="89"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="24" t="s">
         <v>105</v>
       </c>
@@ -6019,15 +5994,15 @@
         <v>55</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="89"/>
+      <c r="E60" s="82"/>
       <c r="F60" s="24" t="s">
         <v>105</v>
       </c>
@@ -6040,15 +6015,15 @@
         <v>56</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="89"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="24" t="s">
         <v>107</v>
       </c>
@@ -6061,15 +6036,15 @@
         <v>57</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="89"/>
+      <c r="E62" s="82"/>
       <c r="F62" s="24" t="s">
         <v>107</v>
       </c>
@@ -6082,15 +6057,15 @@
         <v>58</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="89"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="25" t="s">
         <v>111</v>
       </c>
@@ -6103,15 +6078,15 @@
         <v>59</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="89"/>
+      <c r="E64" s="82"/>
       <c r="F64" s="25" t="s">
         <v>111</v>
       </c>
@@ -6124,15 +6099,15 @@
         <v>60</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="89"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="25" t="s">
         <v>111</v>
       </c>
@@ -6148,12 +6123,12 @@
         <v>113</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="89"/>
+      <c r="E66" s="82"/>
       <c r="F66" s="24" t="s">
         <v>114</v>
       </c>
@@ -6169,12 +6144,12 @@
         <v>116</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="89"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="24" t="s">
         <v>114</v>
       </c>
@@ -6190,12 +6165,12 @@
         <v>117</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="89"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="29" t="s">
         <v>118</v>
       </c>
@@ -6211,13 +6186,13 @@
         <v>121</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="96" t="s">
-        <v>177</v>
+      <c r="E69" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>120</v>
@@ -6234,12 +6209,12 @@
         <v>122</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="97"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="12" t="s">
         <v>120</v>
       </c>
@@ -6255,12 +6230,12 @@
         <v>123</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="97"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="12" t="s">
         <v>124</v>
       </c>
@@ -6275,15 +6250,15 @@
         <v>67</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="97"/>
+      <c r="E72" s="72"/>
       <c r="F72" s="12" t="s">
         <v>119</v>
       </c>
@@ -6301,12 +6276,12 @@
         <v>128</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="97"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="12" t="s">
         <v>129</v>
       </c>
@@ -6321,15 +6296,15 @@
         <v>69</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="97"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="12" t="s">
         <v>134</v>
       </c>
@@ -6344,15 +6319,15 @@
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="97"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="12" t="s">
         <v>135</v>
       </c>
@@ -6367,15 +6342,15 @@
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="97"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="12" t="s">
         <v>131</v>
       </c>
@@ -6390,15 +6365,15 @@
         <v>72</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="97"/>
+      <c r="E77" s="72"/>
       <c r="F77" s="12" t="s">
         <v>131</v>
       </c>
@@ -6413,15 +6388,15 @@
         <v>73</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="97"/>
+      <c r="E78" s="72"/>
       <c r="F78" s="12" t="s">
         <v>131</v>
       </c>
@@ -6436,15 +6411,15 @@
         <v>74</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="97"/>
+      <c r="E79" s="72"/>
       <c r="F79" s="24" t="s">
         <v>138</v>
       </c>
@@ -6459,15 +6434,15 @@
         <v>75</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="97"/>
+      <c r="E80" s="72"/>
       <c r="F80" s="24" t="s">
         <v>138</v>
       </c>
@@ -6482,15 +6457,15 @@
         <v>76</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="97"/>
+      <c r="E81" s="72"/>
       <c r="F81" s="41" t="s">
         <v>138</v>
       </c>
@@ -6505,15 +6480,15 @@
         <v>77</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E82" s="98"/>
+      <c r="E82" s="73"/>
       <c r="F82" s="34" t="s">
         <v>140</v>
       </c>
@@ -6534,7 +6509,7 @@
       <c r="I84" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G5">
+  <autoFilter ref="A4:G82">
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
@@ -6580,127 +6555,127 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/competency-questions.xlsx
+++ b/competency-questions.xlsx
@@ -1440,9 +1440,6 @@
     </r>
   </si>
   <si>
-    <t>How has the provision of the materials used, the raw data collected, and the study results identified evolved over time?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3591,6 +3588,9 @@
   </si>
   <si>
     <t>How often are which research methods used?</t>
+  </si>
+  <si>
+    <t>How has the provision of data (the materials used, raw data collected, and study results identified) evolved over time?</t>
   </si>
 </sst>
 </file>
@@ -4769,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4804,14 +4804,14 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="17"/>
       <c r="F3" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="86"/>
     </row>
@@ -4823,16 +4823,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="97" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="96"/>
     </row>
@@ -4854,13 +4854,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>5</v>
@@ -4869,7 +4869,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4877,20 +4877,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4898,20 +4898,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4922,17 +4922,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4940,20 +4940,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4964,10 +4964,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="12" t="s">
@@ -4985,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="14" t="s">
@@ -5006,13 +5006,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>32</v>
@@ -5029,14 +5029,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>13</v>
@@ -5047,17 +5047,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>20</v>
@@ -5071,17 +5071,17 @@
         <v>14</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5092,10 +5092,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="12" t="s">
@@ -5113,10 +5113,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="12" t="s">
@@ -5131,13 +5131,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="12" t="s">
@@ -5155,10 +5155,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="12" t="s">
@@ -5176,10 +5176,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="12" t="s">
@@ -5197,10 +5197,10 @@
         <v>31</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="12" t="s">
@@ -5215,20 +5215,20 @@
         <v>18</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5239,14 +5239,14 @@
         <v>36</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>35</v>
@@ -5260,14 +5260,14 @@
         <v>37</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>35</v>
@@ -5278,17 +5278,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>43</v>
@@ -5302,14 +5302,14 @@
         <v>38</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>44</v>
@@ -5323,14 +5323,14 @@
         <v>39</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>45</v>
@@ -5344,14 +5344,14 @@
         <v>40</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>45</v>
@@ -5365,10 +5365,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="29" t="s">
@@ -5383,16 +5383,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>50</v>
@@ -5406,13 +5406,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="79"/>
       <c r="F32" s="12" t="s">
@@ -5427,13 +5427,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="12" t="s">
@@ -5448,13 +5448,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="79"/>
       <c r="F34" s="12" t="s">
@@ -5469,13 +5469,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="12" t="s">
@@ -5493,10 +5493,10 @@
         <v>57</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="79"/>
       <c r="F36" s="12" t="s">
@@ -5511,13 +5511,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="12" t="s">
@@ -5532,13 +5532,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="79"/>
       <c r="F38" s="12" t="s">
@@ -5556,10 +5556,10 @@
         <v>63</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="12" t="s">
@@ -5577,10 +5577,10 @@
         <v>66</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="12" t="s">
@@ -5598,10 +5598,10 @@
         <v>68</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="12" t="s">
@@ -5616,13 +5616,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="12" t="s">
@@ -5640,10 +5640,10 @@
         <v>73</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="79"/>
       <c r="F43" s="25" t="s">
@@ -5658,17 +5658,17 @@
         <v>39</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>72</v>
@@ -5679,20 +5679,20 @@
         <v>40</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="79"/>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5700,18 +5700,18 @@
         <v>41</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" s="79"/>
       <c r="F46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5719,20 +5719,20 @@
         <v>42</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5740,20 +5740,20 @@
         <v>43</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5761,22 +5761,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="81" t="s">
-        <v>175</v>
-      </c>
       <c r="F49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5784,20 +5784,20 @@
         <v>45</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5805,20 +5805,20 @@
         <v>46</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5826,20 +5826,20 @@
         <v>47</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5847,20 +5847,20 @@
         <v>48</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5868,20 +5868,20 @@
         <v>49</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5889,20 +5889,20 @@
         <v>50</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5910,20 +5910,20 @@
         <v>51</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5931,20 +5931,20 @@
         <v>52</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="82"/>
       <c r="F57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5952,20 +5952,20 @@
         <v>53</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E58" s="82"/>
       <c r="F58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5973,20 +5973,20 @@
         <v>54</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" s="82"/>
       <c r="F59" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5994,20 +5994,20 @@
         <v>55</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="82"/>
       <c r="F60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6015,20 +6015,20 @@
         <v>56</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="82"/>
       <c r="F61" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6036,20 +6036,20 @@
         <v>57</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="82"/>
       <c r="F62" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6057,20 +6057,20 @@
         <v>58</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="82"/>
       <c r="F63" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6078,20 +6078,20 @@
         <v>59</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6099,20 +6099,20 @@
         <v>60</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="82"/>
       <c r="F65" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6120,20 +6120,20 @@
         <v>61</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="82"/>
       <c r="F66" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6141,20 +6141,20 @@
         <v>62</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" s="82"/>
       <c r="F67" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6162,20 +6162,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E68" s="82"/>
       <c r="F68" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6183,22 +6183,22 @@
         <v>64</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6206,20 +6206,20 @@
         <v>65</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E70" s="72"/>
       <c r="F70" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6227,20 +6227,20 @@
         <v>66</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E71" s="72"/>
       <c r="F71" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="36"/>
@@ -6250,20 +6250,20 @@
         <v>67</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E72" s="72"/>
       <c r="F72" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="5"/>
@@ -6273,20 +6273,20 @@
         <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="5"/>
@@ -6296,20 +6296,20 @@
         <v>69</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E74" s="72"/>
       <c r="F74" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H74" s="68"/>
       <c r="I74" s="37"/>
@@ -6319,20 +6319,20 @@
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E75" s="72"/>
       <c r="F75" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="H75" s="68"/>
       <c r="I75" s="5"/>
@@ -6342,20 +6342,20 @@
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="36"/>
@@ -6365,20 +6365,20 @@
         <v>72</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E77" s="72"/>
       <c r="F77" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>132</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="36"/>
@@ -6388,20 +6388,20 @@
         <v>73</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" s="72"/>
       <c r="F78" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>132</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="5"/>
@@ -6411,20 +6411,20 @@
         <v>74</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E79" s="72"/>
       <c r="F79" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="5"/>
@@ -6434,20 +6434,20 @@
         <v>75</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E80" s="72"/>
       <c r="F80" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="5"/>
@@ -6457,20 +6457,20 @@
         <v>76</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E81" s="72"/>
       <c r="F81" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>138</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>139</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="5"/>
@@ -6480,20 +6480,20 @@
         <v>77</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="73"/>
       <c r="F82" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>141</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="5"/>
@@ -6555,127 +6555,127 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/competency-questions.xlsx
+++ b/competency-questions.xlsx
@@ -79,9 +79,6 @@
     <t>How has building on previous research data and results, including from other disciplines, evolved over time?</t>
   </si>
   <si>
-    <t>How do the authors justify the selection and combination of research methods and design elements?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -101,9 +98,6 @@
       </rPr>
       <t>, based on an in-depth understanding of their strengths and weaknesses. Researchers are trained in using a large set of research methods and techniques. Skills in conducting case studies and action research are stimulated by the work in the IS field.</t>
     </r>
-  </si>
-  <si>
-    <t>How have the proportions of experiments, secondary research (reviews), surveys, case studies, and action research in the research methods used evolved over time?</t>
   </si>
   <si>
     <t>How has the number of replications evolved over time?</t>
@@ -2277,9 +2271,6 @@
     <t>Methods are available for synthesizing evidence from a variety of perspectives and approaches to both research and practice.</t>
   </si>
   <si>
-    <t>How many different research methods are used per publication?</t>
-  </si>
-  <si>
     <r>
       <t>Limited advice on how to</t>
     </r>
@@ -2327,12 +2318,6 @@
       </rPr>
       <t>to both research and practice.</t>
     </r>
-  </si>
-  <si>
-    <t>How has the number of research methods used per publication evolved over time?</t>
-  </si>
-  <si>
-    <t>Which methods are used to synthesize evidence from data of different research methods?</t>
   </si>
   <si>
     <r>
@@ -3246,9 +3231,6 @@
     </r>
   </si>
   <si>
-    <t>How have the proportions of case studies and action research in the research methods used evolved over time?</t>
-  </si>
-  <si>
     <t>Which sub-fields of SE and RE do the empirical studies cover over time?</t>
   </si>
   <si>
@@ -3267,9 +3249,6 @@
     <t>Relevance of empirical studies</t>
   </si>
   <si>
-    <t>What research methods are used to conduct integrative and interpretive (systematic literature) reviews, so-called secondary research?</t>
-  </si>
-  <si>
     <t>Synthesis of evidence</t>
   </si>
   <si>
@@ -3313,9 +3292,6 @@
       </rPr>
       <t xml:space="preserve"> by the work in the IS field.</t>
     </r>
-  </si>
-  <si>
-    <t>How has the proportions of  research methods to conduct (systematic literature) reviews, so-called secondary research, evolved over time?</t>
   </si>
   <si>
     <t>How has the the reporting of the population evolved over time?</t>
@@ -3587,10 +3563,34 @@
     <t>Related work with similar question</t>
   </si>
   <si>
-    <t>How often are which research methods used?</t>
-  </si>
-  <si>
     <t>How has the provision of data (the materials used, raw data collected, and study results identified) evolved over time?</t>
+  </si>
+  <si>
+    <t>What empirical methods are used to conduct integrative and interpretive (systematic literature) reviews, so-called secondary research?</t>
+  </si>
+  <si>
+    <t>How has the proportions of  empirical methods to conduct (systematic literature) reviews, so-called secondary research, evolved over time?</t>
+  </si>
+  <si>
+    <t>How many different empirical methods are used per publication?</t>
+  </si>
+  <si>
+    <t>How has the number of empirical methods used per publication evolved over time?</t>
+  </si>
+  <si>
+    <t>Which methods are used to synthesize evidence from data of different empirical methods?</t>
+  </si>
+  <si>
+    <t>How do the authors justify the selection and combination of empirical methods and design elements?</t>
+  </si>
+  <si>
+    <t>How often are which empirical methods used?</t>
+  </si>
+  <si>
+    <t>How have the proportions of experiments, secondary research (reviews), surveys, case studies, and action research in the empirical methods used evolved over time?</t>
+  </si>
+  <si>
+    <t>How have the proportions of case studies and action research in the empirical methods used evolved over time?</t>
   </si>
 </sst>
 </file>
@@ -4769,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4804,14 +4804,14 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="17"/>
       <c r="F3" s="84" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G3" s="86"/>
     </row>
@@ -4823,16 +4823,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G4" s="96"/>
     </row>
@@ -4854,22 +4854,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4877,20 +4877,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4898,20 +4898,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4922,17 +4922,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4940,20 +4940,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4964,17 +4964,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4985,17 +4985,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5006,19 +5006,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5026,20 +5026,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5047,20 +5047,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5068,20 +5068,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5089,20 +5089,20 @@
         <v>12</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5110,20 +5110,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5131,20 +5131,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5152,20 +5152,20 @@
         <v>15</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5173,20 +5173,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5194,20 +5194,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5215,20 +5215,20 @@
         <v>18</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5236,20 +5236,20 @@
         <v>19</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5257,20 +5257,20 @@
         <v>20</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5278,20 +5278,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5299,20 +5299,20 @@
         <v>22</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5320,20 +5320,20 @@
         <v>23</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5341,20 +5341,20 @@
         <v>24</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,20 +5362,20 @@
         <v>25</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5383,22 +5383,22 @@
         <v>26</v>
       </c>
       <c r="B31" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>172</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5406,20 +5406,20 @@
         <v>27</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E32" s="79"/>
       <c r="F32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5427,20 +5427,20 @@
         <v>28</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5448,20 +5448,20 @@
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E34" s="79"/>
       <c r="F34" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5469,20 +5469,20 @@
         <v>30</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5490,20 +5490,20 @@
         <v>31</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E36" s="79"/>
       <c r="F36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5511,20 +5511,20 @@
         <v>32</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5532,20 +5532,20 @@
         <v>33</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E38" s="79"/>
       <c r="F38" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5553,20 +5553,20 @@
         <v>34</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5574,20 +5574,20 @@
         <v>35</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5595,20 +5595,20 @@
         <v>36</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5616,20 +5616,20 @@
         <v>37</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5637,20 +5637,20 @@
         <v>38</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E43" s="79"/>
       <c r="F43" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5658,20 +5658,20 @@
         <v>39</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5679,20 +5679,20 @@
         <v>40</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E45" s="79"/>
       <c r="F45" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5700,18 +5700,18 @@
         <v>41</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E46" s="79"/>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5719,20 +5719,20 @@
         <v>42</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5740,20 +5740,20 @@
         <v>43</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5761,22 +5761,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5784,20 +5784,20 @@
         <v>45</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5805,20 +5805,20 @@
         <v>46</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5826,20 +5826,20 @@
         <v>47</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5847,20 +5847,20 @@
         <v>48</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5868,20 +5868,20 @@
         <v>49</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5889,20 +5889,20 @@
         <v>50</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5910,20 +5910,20 @@
         <v>51</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5931,20 +5931,20 @@
         <v>52</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E57" s="82"/>
       <c r="F57" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5952,20 +5952,20 @@
         <v>53</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E58" s="82"/>
       <c r="F58" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5973,20 +5973,20 @@
         <v>54</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E59" s="82"/>
       <c r="F59" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5994,20 +5994,20 @@
         <v>55</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E60" s="82"/>
       <c r="F60" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6015,20 +6015,20 @@
         <v>56</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E61" s="82"/>
       <c r="F61" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6036,20 +6036,20 @@
         <v>57</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E62" s="82"/>
       <c r="F62" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6057,20 +6057,20 @@
         <v>58</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E63" s="82"/>
       <c r="F63" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6078,20 +6078,20 @@
         <v>59</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6099,20 +6099,20 @@
         <v>60</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E65" s="82"/>
       <c r="F65" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6120,20 +6120,20 @@
         <v>61</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E66" s="82"/>
       <c r="F66" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6141,20 +6141,20 @@
         <v>62</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E67" s="82"/>
       <c r="F67" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6162,20 +6162,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E68" s="82"/>
       <c r="F68" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6183,22 +6183,22 @@
         <v>64</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F69" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6206,20 +6206,20 @@
         <v>65</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E70" s="72"/>
       <c r="F70" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6227,20 +6227,20 @@
         <v>66</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E71" s="72"/>
       <c r="F71" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="36"/>
@@ -6250,20 +6250,20 @@
         <v>67</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E72" s="72"/>
       <c r="F72" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="5"/>
@@ -6273,20 +6273,20 @@
         <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="5"/>
@@ -6296,20 +6296,20 @@
         <v>69</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E74" s="72"/>
       <c r="F74" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H74" s="68"/>
       <c r="I74" s="37"/>
@@ -6319,20 +6319,20 @@
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E75" s="72"/>
       <c r="F75" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H75" s="68"/>
       <c r="I75" s="5"/>
@@ -6342,20 +6342,20 @@
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="36"/>
@@ -6365,20 +6365,20 @@
         <v>72</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E77" s="72"/>
       <c r="F77" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="36"/>
@@ -6388,20 +6388,20 @@
         <v>73</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E78" s="72"/>
       <c r="F78" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="5"/>
@@ -6411,20 +6411,20 @@
         <v>74</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E79" s="72"/>
       <c r="F79" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="5"/>
@@ -6434,20 +6434,20 @@
         <v>75</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E80" s="72"/>
       <c r="F80" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="5"/>
@@ -6457,20 +6457,20 @@
         <v>76</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E81" s="72"/>
       <c r="F81" s="41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="5"/>
@@ -6480,20 +6480,20 @@
         <v>77</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E82" s="73"/>
       <c r="F82" s="34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="5"/>
@@ -6555,127 +6555,127 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/competency-questions.xlsx
+++ b/competency-questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -48,9 +48,6 @@
     <t>How many empirical studies are by authors working for large software development companies?</t>
   </si>
   <si>
-    <t>How has the number of studies by authors working for large software development companies evolved over time?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The use of </t>
     </r>
@@ -100,13 +97,7 @@
     </r>
   </si>
   <si>
-    <t>How has the number of replications evolved over time?</t>
-  </si>
-  <si>
     <t>How has the use of triangulation for research design evolved over time?</t>
-  </si>
-  <si>
-    <t>How has the number of pure demonstrations (proof of concept) and simple experience reports (lessons learned) evolved over time?</t>
   </si>
   <si>
     <t>How do the authors justify preventing bias in the study results?</t>
@@ -2864,9 +2855,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>How has the number of papers that do not have an empirical study evolved over time?</t>
-  </si>
-  <si>
     <t>How often are those who conduct the studies also the authors of the papers?</t>
   </si>
   <si>
@@ -3527,9 +3515,6 @@
     <t>How has the use of standards to describe the theories incorporated evolved over time?</t>
   </si>
   <si>
-    <t>How has the number of empirical studies evolved over time?</t>
-  </si>
-  <si>
     <r>
       <t>There are relatively</t>
     </r>
@@ -3591,12 +3576,27 @@
   </si>
   <si>
     <t>How have the proportions of case studies and action research in the empirical methods used evolved over time?</t>
+  </si>
+  <si>
+    <t>How has the proportion of empirical studies evolved over time?</t>
+  </si>
+  <si>
+    <t>How has the proportion of papers that do not have an empirical study evolved over time?</t>
+  </si>
+  <si>
+    <t>How has the proportion of studies by authors working for large software development companies evolved over time?</t>
+  </si>
+  <si>
+    <t>How has the proportion of replications evolved over time?</t>
+  </si>
+  <si>
+    <t>How has the proportion of pure demonstrations (proof of concept) and simple experience reports (lessons learned) evolved over time?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4464,7 +4464,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4481,9 +4481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4521,9 +4521,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4558,7 +4558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4593,7 +4593,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4769,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4804,14 +4804,14 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="17"/>
       <c r="F3" s="84" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G3" s="86"/>
     </row>
@@ -4823,16 +4823,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G4" s="96"/>
     </row>
@@ -4854,22 +4854,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4877,20 +4877,20 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4898,20 +4898,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4922,17 +4922,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4940,20 +4940,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4964,17 +4964,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4982,20 +4982,20 @@
         <v>7</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5003,22 +5003,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5026,20 +5026,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5047,20 +5047,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -5068,20 +5068,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5089,20 +5089,20 @@
         <v>12</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5110,20 +5110,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5131,20 +5131,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5152,20 +5152,20 @@
         <v>15</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5173,20 +5173,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5194,20 +5194,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5215,20 +5215,20 @@
         <v>18</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5236,20 +5236,20 @@
         <v>19</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5257,20 +5257,20 @@
         <v>20</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5278,20 +5278,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5299,20 +5299,20 @@
         <v>22</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5320,20 +5320,20 @@
         <v>23</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -5341,20 +5341,20 @@
         <v>24</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,20 +5362,20 @@
         <v>25</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5383,22 +5383,22 @@
         <v>26</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5406,20 +5406,20 @@
         <v>27</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E32" s="79"/>
       <c r="F32" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5427,20 +5427,20 @@
         <v>28</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5448,20 +5448,20 @@
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E34" s="79"/>
       <c r="F34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5469,20 +5469,20 @@
         <v>30</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5490,20 +5490,20 @@
         <v>31</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E36" s="79"/>
       <c r="F36" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5511,20 +5511,20 @@
         <v>32</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5532,20 +5532,20 @@
         <v>33</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E38" s="79"/>
       <c r="F38" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5553,20 +5553,20 @@
         <v>34</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5574,20 +5574,20 @@
         <v>35</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5595,20 +5595,20 @@
         <v>36</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -5616,20 +5616,20 @@
         <v>37</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5637,20 +5637,20 @@
         <v>38</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E43" s="79"/>
       <c r="F43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5658,20 +5658,20 @@
         <v>39</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5679,20 +5679,20 @@
         <v>40</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E45" s="79"/>
       <c r="F45" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5700,18 +5700,18 @@
         <v>41</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E46" s="79"/>
       <c r="F46" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5719,20 +5719,20 @@
         <v>42</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5740,20 +5740,20 @@
         <v>43</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5761,22 +5761,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5784,20 +5784,20 @@
         <v>45</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5805,20 +5805,20 @@
         <v>46</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5826,20 +5826,20 @@
         <v>47</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5847,20 +5847,20 @@
         <v>48</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5868,20 +5868,20 @@
         <v>49</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5889,20 +5889,20 @@
         <v>50</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5910,20 +5910,20 @@
         <v>51</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5931,20 +5931,20 @@
         <v>52</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E57" s="82"/>
       <c r="F57" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5952,20 +5952,20 @@
         <v>53</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E58" s="82"/>
       <c r="F58" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5973,20 +5973,20 @@
         <v>54</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E59" s="82"/>
       <c r="F59" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5994,20 +5994,20 @@
         <v>55</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E60" s="82"/>
       <c r="F60" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6015,20 +6015,20 @@
         <v>56</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E61" s="82"/>
       <c r="F61" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6036,20 +6036,20 @@
         <v>57</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="82"/>
       <c r="F62" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6057,20 +6057,20 @@
         <v>58</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E63" s="82"/>
       <c r="F63" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6078,20 +6078,20 @@
         <v>59</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6099,20 +6099,20 @@
         <v>60</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E65" s="82"/>
       <c r="F65" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6120,20 +6120,20 @@
         <v>61</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E66" s="82"/>
       <c r="F66" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6141,20 +6141,20 @@
         <v>62</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E67" s="82"/>
       <c r="F67" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6162,20 +6162,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E68" s="82"/>
       <c r="F68" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6183,22 +6183,22 @@
         <v>64</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6206,20 +6206,20 @@
         <v>65</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E70" s="72"/>
       <c r="F70" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6227,20 +6227,20 @@
         <v>66</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E71" s="72"/>
       <c r="F71" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="36"/>
@@ -6250,20 +6250,20 @@
         <v>67</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E72" s="72"/>
       <c r="F72" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="5"/>
@@ -6273,20 +6273,20 @@
         <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="5"/>
@@ -6296,20 +6296,20 @@
         <v>69</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E74" s="72"/>
       <c r="F74" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H74" s="68"/>
       <c r="I74" s="37"/>
@@ -6319,20 +6319,20 @@
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E75" s="72"/>
       <c r="F75" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H75" s="68"/>
       <c r="I75" s="5"/>
@@ -6342,20 +6342,20 @@
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="36"/>
@@ -6365,20 +6365,20 @@
         <v>72</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E77" s="72"/>
       <c r="F77" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="36"/>
@@ -6388,20 +6388,20 @@
         <v>73</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E78" s="72"/>
       <c r="F78" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="5"/>
@@ -6411,20 +6411,20 @@
         <v>74</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E79" s="72"/>
       <c r="F79" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="5"/>
@@ -6434,20 +6434,20 @@
         <v>75</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E80" s="72"/>
       <c r="F80" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="5"/>
@@ -6457,20 +6457,20 @@
         <v>76</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E81" s="72"/>
       <c r="F81" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="5"/>
@@ -6480,20 +6480,20 @@
         <v>77</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E82" s="73"/>
       <c r="F82" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="5"/>
@@ -6555,127 +6555,127 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/competency-questions.xlsx
+++ b/competency-questions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="264">
   <si>
     <t>State of Practice (2007)</t>
   </si>
@@ -1375,9 +1375,6 @@
     <t>Few studies provide results that enable efficient cumulative research, or that are highly relevant for other researchers. An illustration is when we produce studies that compare methods X and Y with diverging results without explaining the reasons for the difference.</t>
   </si>
   <si>
-    <t>More research studies are designed with the goal of enabling efficient use of its results by other researchers.</t>
-  </si>
-  <si>
     <t>Does the research design allow for efficient reuse of study (results) by other researchers?</t>
   </si>
   <si>
@@ -3591,6 +3588,66 @@
   </si>
   <si>
     <t>How has the proportion of pure demonstrations (proof of concept) and simple experience reports (lessons learned) evolved over time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One may question the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>industrial relevance of most SE studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">More research studies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are designed with the goal of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enabling efficient use of its results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by other researchers.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4767,10 +4824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4804,18 +4862,18 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="17"/>
       <c r="F3" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="86"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
         <v>1</v>
       </c>
@@ -4823,20 +4881,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="97" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="96"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="91"/>
       <c r="C5" s="75"/>
@@ -4854,13 +4912,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>5</v>
@@ -4869,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4877,44 +4935,44 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -4922,17 +4980,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -4940,23 +4998,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -4964,10 +5022,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="12" t="s">
@@ -4977,18 +5035,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>7</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="14" t="s">
@@ -4998,7 +5056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>8</v>
       </c>
@@ -5006,13 +5064,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>27</v>
@@ -5021,22 +5079,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
@@ -5047,17 +5105,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>15</v>
@@ -5068,34 +5126,34 @@
         <v>11</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="12" t="s">
@@ -5105,7 +5163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -5113,10 +5171,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="12" t="s">
@@ -5126,18 +5184,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>14</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="12" t="s">
@@ -5147,7 +5205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -5155,10 +5213,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="82"/>
       <c r="F20" s="12" t="s">
@@ -5168,18 +5226,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="12" t="s">
@@ -5189,7 +5247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>17</v>
       </c>
@@ -5197,10 +5255,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="12" t="s">
@@ -5215,20 +5273,20 @@
         <v>18</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5239,20 +5297,20 @@
         <v>31</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -5260,41 +5318,41 @@
         <v>32</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>21</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>22</v>
       </c>
@@ -5302,14 +5360,14 @@
         <v>33</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>39</v>
@@ -5323,20 +5381,20 @@
         <v>34</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -5344,20 +5402,20 @@
         <v>35</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>25</v>
       </c>
@@ -5365,10 +5423,10 @@
         <v>43</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="29" t="s">
@@ -5383,36 +5441,36 @@
         <v>26</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>27</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="79"/>
       <c r="F32" s="12" t="s">
@@ -5422,18 +5480,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>28</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="12" t="s">
@@ -5443,18 +5501,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="79"/>
       <c r="F34" s="12" t="s">
@@ -5464,18 +5522,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>30</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="12" t="s">
@@ -5485,7 +5543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -5493,10 +5551,10 @@
         <v>52</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="79"/>
       <c r="F36" s="12" t="s">
@@ -5506,18 +5564,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="12" t="s">
@@ -5527,18 +5585,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>33</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="79"/>
       <c r="F38" s="12" t="s">
@@ -5548,7 +5606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>34</v>
       </c>
@@ -5556,10 +5614,10 @@
         <v>58</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="79"/>
       <c r="F39" s="12" t="s">
@@ -5569,7 +5627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>35</v>
       </c>
@@ -5577,10 +5635,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="12" t="s">
@@ -5590,7 +5648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>36</v>
       </c>
@@ -5598,10 +5656,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="79"/>
       <c r="F41" s="12" t="s">
@@ -5611,18 +5669,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>37</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="12" t="s">
@@ -5632,25 +5690,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>38</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="79"/>
       <c r="F43" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -5658,102 +5716,102 @@
         <v>39</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>40</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="79"/>
       <c r="F45" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>41</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="79"/>
       <c r="F46" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>42</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>43</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5761,22 +5819,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5784,335 +5842,335 @@
         <v>45</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>46</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>47</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>48</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" s="82"/>
       <c r="F53" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>49</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>50</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="82"/>
       <c r="F55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>51</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>52</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="82"/>
       <c r="F57" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>53</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="82"/>
       <c r="F58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>54</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" s="82"/>
       <c r="F59" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>55</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="82"/>
       <c r="F60" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>56</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="82"/>
       <c r="F61" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>57</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" s="82"/>
       <c r="F62" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>58</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" s="82"/>
       <c r="F63" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>59</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>60</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" s="82"/>
       <c r="F65" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6120,20 +6178,20 @@
         <v>61</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E66" s="82"/>
       <c r="F66" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6141,359 +6199,359 @@
         <v>62</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E67" s="82"/>
       <c r="F67" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>63</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" s="82"/>
       <c r="F68" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>64</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>65</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E70" s="72"/>
       <c r="F70" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>66</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" s="72"/>
       <c r="F71" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="36"/>
     </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>67</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" s="72"/>
       <c r="F72" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" s="72"/>
       <c r="F73" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>69</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" s="72"/>
       <c r="F74" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H74" s="68"/>
       <c r="I74" s="37"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E75" s="72"/>
       <c r="F75" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="H75" s="68"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="36"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>72</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="72"/>
       <c r="F77" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="36"/>
     </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>73</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78" s="72"/>
       <c r="F78" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>74</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" s="72"/>
       <c r="F79" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>75</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" s="72"/>
       <c r="F80" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>76</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" s="72"/>
       <c r="F81" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>77</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" s="73"/>
       <c r="F82" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="5"/>
@@ -6510,6 +6568,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:G82">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
@@ -6541,7 +6604,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,127 +6618,127 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
